--- a/plots/countries/plot data/France.xlsx
+++ b/plots/countries/plot data/France.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>78.1410015879529</v>
+        <v>82.4923587319877</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>102.772781374056</v>
+        <v>102.921183358857</v>
       </c>
     </row>
     <row r="4">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>64.4958283462604</v>
+        <v>64.3450886392835</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>66.3022533975838</v>
+        <v>66.3035643858609</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>121.907692502062</v>
+        <v>123.224025390385</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>75.177147017135</v>
+        <v>75.2821512531811</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-18.2890835849504</v>
+        <v>-22.3642982643478</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>17.2506003959243</v>
+        <v>18.5568068969435</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>77.2544309563257</v>
+        <v>81.4074678492541</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>112.502214105074</v>
+        <v>112.650220285213</v>
       </c>
     </row>
     <row r="13">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>77.5151232007725</v>
+        <v>77.3676212121184</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>67.7673382368128</v>
+        <v>67.7688255448728</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>124.550094125993</v>
+        <v>125.916534000047</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>74.4811503976752</v>
+        <v>74.32977181177</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-18.4587976000234</v>
+        <v>-22.1042194060263</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>18.002948792144</v>
+        <v>19.3584262219673</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>76.594031821505</v>
+        <v>80.5481506367021</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>108.7666649284</v>
+        <v>108.914495815717</v>
       </c>
     </row>
     <row r="22">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>67.4497266970369</v>
+        <v>67.3035347289419</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>68.8521249082244</v>
+        <v>68.8535909590639</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>129.089724138436</v>
+        <v>130.302101876424</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>72.0273421318104</v>
+        <v>71.8839553997361</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-17.279196491756</v>
+        <v>-20.5162968938936</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>18.8251121249866</v>
+        <v>20.1599504894109</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>75.4132691180604</v>
+        <v>79.2873729345991</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>105.364846426944</v>
+        <v>105.513079159042</v>
       </c>
     </row>
     <row r="31">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>64.556668233813</v>
+        <v>64.4074240286365</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>56.5965499641214</v>
+        <v>56.5979378458448</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>129.131591665397</v>
+        <v>130.413085377279</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>69.461801883922</v>
+        <v>69.316300790676</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-21.551447365035</v>
+        <v>-24.4709486129535</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>19.6248046022143</v>
+        <v>20.9539181776927</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>74.7706036051082</v>
+        <v>78.6233510381284</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>98.3639699904313</v>
+        <v>98.5125431934161</v>
       </c>
     </row>
     <row r="40">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>65.5263298792066</v>
+        <v>65.3916469801695</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>53.015697576013</v>
+        <v>53.0169526883405</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>130.208939637627</v>
+        <v>131.3903537091</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>69.6137784307892</v>
+        <v>69.4369491287157</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-19.3370583407001</v>
+        <v>-22.4703932024914</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>20.0320810934018</v>
+        <v>21.3517525898943</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>75.3904610079387</v>
+        <v>79.1461313351663</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>97.7511588175903</v>
+        <v>97.8998514052355</v>
       </c>
     </row>
     <row r="49">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>67.8898412648271</v>
+        <v>67.7459093653742</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>55.761422155648</v>
+        <v>55.7626000201894</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>132.081786863128</v>
+        <v>133.317189837669</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>68.5094867912752</v>
+        <v>68.2461748391028</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-22.4281186423795</v>
+        <v>-25.8044684839677</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>20.2969851785636</v>
+        <v>21.6394162408144</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>75.9800129569483</v>
+        <v>79.6953293464819</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>107.141367938309</v>
+        <v>107.290062134883</v>
       </c>
     </row>
     <row r="58">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>69.9241721382455</v>
+        <v>69.7749762905619</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>60.4789616676384</v>
+        <v>60.4802287762919</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>133.82389481045</v>
+        <v>135.105737032394</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>69.4338359201144</v>
+        <v>69.1226485536875</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-30.0358381940125</v>
+        <v>-33.203094882668</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>20.3723255298671</v>
+        <v>21.7051100181792</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>76.1060100452632</v>
+        <v>79.7500511810393</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>101.664220950129</v>
+        <v>101.813517725518</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>67.9429329565457</v>
+        <v>67.7931806844871</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>56.9100192459624</v>
+        <v>56.9111480355206</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>136.322817146303</v>
+        <v>137.604992193471</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>70.761661671566</v>
+        <v>70.430969895764</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-31.2738794192788</v>
+        <v>-34.4723167842663</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>20.4029588803873</v>
+        <v>21.7391429451168</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>76.0408586820227</v>
+        <v>79.6367731639692</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>106.253874271099</v>
+        <v>106.403633317518</v>
       </c>
     </row>
     <row r="76">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>67.0924216435995</v>
+        <v>66.9400202754194</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>69.4740456609221</v>
+        <v>69.475188558578</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>138.567767723233</v>
+        <v>139.77863014042</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>66.0134549123837</v>
+        <v>65.6461786335991</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-34.5129226623121</v>
+        <v>-37.2701541468302</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>20.8793639366375</v>
+        <v>22.2547080948462</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>76.3760870981556</v>
+        <v>79.9816259924326</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>107.802763326118</v>
+        <v>107.952901636936</v>
       </c>
     </row>
     <row r="85">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>67.984281566039</v>
+        <v>67.8341468607447</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>62.916460096964</v>
+        <v>62.9176380730128</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>140.872086443625</v>
+        <v>141.979928822096</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>62.9478542173601</v>
+        <v>62.5716251944526</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-39.4006657139874</v>
+        <v>-42.2162140908723</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>21.0823358484105</v>
+        <v>22.4757693630286</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>78.6236569729703</v>
+        <v>82.2458235592868</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>103.596180940134</v>
+        <v>103.746634446481</v>
       </c>
     </row>
     <row r="94">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>66.3064349399589</v>
+        <v>66.1567242570252</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>62.4656838346914</v>
+        <v>62.4668655699026</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>140.370712251168</v>
+        <v>141.738735311043</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>62.4238040114509</v>
+        <v>62.0408584389983</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-23.0570519708975</v>
+        <v>-25.813453448517</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>21.4800275312027</v>
+        <v>22.9024050941164</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>78.3425581978072</v>
+        <v>81.969737200565</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>108.930350505777</v>
+        <v>109.081140070161</v>
       </c>
     </row>
     <row r="103">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>71.4298500284014</v>
+        <v>71.2565941817837</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>55.9174409923392</v>
+        <v>55.9184874921231</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>143.218325969129</v>
+        <v>144.461753265182</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>61.3289679343194</v>
+        <v>60.9304428758913</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-37.5725492146627</v>
+        <v>-39.85631827362</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>21.7116283875196</v>
+        <v>23.187451829262</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>76.8559417844722</v>
+        <v>80.478923061558</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>103.626222881297</v>
+        <v>103.775851545115</v>
       </c>
     </row>
     <row r="112">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>67.3773839697346</v>
+        <v>67.2403208622455</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>59.1916886311042</v>
+        <v>59.1925244958836</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>144.102192752183</v>
+        <v>145.247910494056</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>62.5249320218045</v>
+        <v>62.2332318615891</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-47.3106637057058</v>
+        <v>-49.710101337019</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>21.919253434552</v>
+        <v>23.4353264303818</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>73.714760776066</v>
+        <v>77.222278391617</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>108.324882896862</v>
+        <v>108.473427275109</v>
       </c>
     </row>
     <row r="121">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>67.484038746597</v>
+        <v>67.3481760983238</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>62.6324558170777</v>
+        <v>62.6333500505122</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>143.550030453341</v>
+        <v>144.633747743584</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>62.3425487382113</v>
+        <v>62.0317705589047</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-51.9285501616666</v>
+        <v>-54.5131452421578</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>22.0334341333174</v>
+        <v>23.5760938137932</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>74.2561838418586</v>
+        <v>77.7412184416691</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>112.923690250966</v>
+        <v>113.071898127343</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>63.498052716936</v>
+        <v>63.3649450696987</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>61.5150253229705</v>
+        <v>61.515795240977</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>144.052336997987</v>
+        <v>144.795856552113</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>62.4075323351645</v>
+        <v>62.0901841137413</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-53.738742343303</v>
+        <v>-56.4139545728912</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>21.8231755414843</v>
+        <v>23.4298144012886</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>73.8340734670773</v>
+        <v>77.3305665820724</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>110.828475071992</v>
+        <v>110.972183836549</v>
       </c>
     </row>
     <row r="139">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>64.9690307360167</v>
+        <v>64.8457320572403</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>141.725959274484</v>
+        <v>142.321988941907</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>62.4381451065299</v>
+        <v>62.1390858282028</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-52.7850607667389</v>
+        <v>-55.5319216042857</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>21.6729857402725</v>
+        <v>23.2871810134538</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>73.2972619231478</v>
+        <v>76.736115222706</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>105.017321063797</v>
+        <v>105.196407116188</v>
       </c>
     </row>
     <row r="148">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>63.8332092374041</v>
+        <v>63.7072641096812</v>
       </c>
     </row>
     <row r="150">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>141.098745794601</v>
+        <v>141.649971989827</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>63.9647592180541</v>
+        <v>63.6973839485356</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-52.1344931067932</v>
+        <v>-54.9469120227802</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>21.6405287246417</v>
+        <v>23.2527657559705</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>73.8182890234258</v>
+        <v>77.2905553567269</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>96.6504665386841</v>
+        <v>96.8676836877808</v>
       </c>
     </row>
     <row r="157">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>62.7621300424731</v>
+        <v>62.6491090234908</v>
       </c>
     </row>
     <row r="159">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>139.573657074869</v>
+        <v>140.101412835911</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>64.9954925550844</v>
+        <v>64.7710936331455</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-47.8206936761068</v>
+        <v>-50.5552710831892</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>21.4667424320404</v>
+        <v>23.1618230534162</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>75.334341927278</v>
+        <v>78.9979407360478</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>103.460515373568</v>
+        <v>103.773200948933</v>
       </c>
     </row>
     <row r="166">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>60.7666495529545</v>
+        <v>60.7396610386843</v>
       </c>
     </row>
     <row r="168">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>132.940330793115</v>
+        <v>133.697276539309</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>60.7154201899372</v>
+        <v>60.497239305079</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-46.5270471080042</v>
+        <v>-49.4428398392252</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>21.4890623857835</v>
+        <v>23.2790886283747</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>74.3092303515431</v>
+        <v>77.9083940012464</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>105.604912715342</v>
+        <v>106.013818163033</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>52.1150240665394</v>
+        <v>51.9896962066283</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>59.4000228495698</v>
+        <v>59.3995143063828</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>132.453407939168</v>
+        <v>133.160298215631</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>50.6149855761812</v>
+        <v>50.4390852023167</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-34.9715533621563</v>
+        <v>-37.7429159965038</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>20.822848017131</v>
+        <v>22.735351137752</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>72.2384387888677</v>
+        <v>75.7464060356602</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>103.459234322091</v>
+        <v>104.003505978213</v>
       </c>
     </row>
     <row r="184">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>55.5410274831138</v>
+        <v>55.4984930995053</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>60.092788520384</v>
+        <v>60.0628304593506</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>133.179920393178</v>
+        <v>133.939047842432</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>53.7436368245894</v>
+        <v>53.6017068587333</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-36.6402787854296</v>
+        <v>-39.7884126279913</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>20.9214207187105</v>
+        <v>22.9209432963209</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>71.9604269695722</v>
+        <v>75.4401148469661</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>88.0573626005021</v>
+        <v>88.176269228581</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>52.3712609148209</v>
+        <v>52.8909259015991</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>54.7196284790626</v>
+        <v>54.7215319647701</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>134.345930723286</v>
+        <v>135.113579280588</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>53.2824352734398</v>
+        <v>53.1898389291634</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-37.7102590482209</v>
+        <v>-41.0186416858865</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>20.0159874488584</v>
+        <v>21.9489681982606</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>71.8004414955895</v>
+        <v>75.1704947189626</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>93.4870894335845</v>
+        <v>95.0845555367682</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>51.302693865544</v>
+        <v>51.4319772952801</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>56.9790063848486</v>
+        <v>56.9794778883763</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>132.65206045708</v>
+        <v>133.435283050519</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>51.1529638018068</v>
+        <v>51.0828320366343</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-41.2045879409163</v>
+        <v>-44.2543792925874</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>19.6330122347252</v>
+        <v>21.5213255252897</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>71.006871064286</v>
+        <v>74.3191338975337</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>96.6294733819411</v>
+        <v>97.9966368455951</v>
       </c>
     </row>
     <row r="211">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>50.6948413387246</v>
+        <v>50.8990319414421</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>55.3462458169333</v>
+        <v>55.3374033777215</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>132.298926394665</v>
+        <v>133.060235786416</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>52.8895267163609</v>
+        <v>52.8353207121706</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-46.0276720925336</v>
+        <v>-50.2468404405747</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>17.9541461137622</v>
+        <v>19.6960274849752</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>72.5974185667381</v>
+        <v>75.9333741697374</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>80.3876915498166</v>
+        <v>81.3001831395176</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>48.1103210815131</v>
+        <v>48.2912299283605</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>42.0585866898654</v>
+        <v>42.0585245744597</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>131.854786235573</v>
+        <v>132.614533750446</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>52.3287956717026</v>
+        <v>52.2911910474955</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>-39.6882870755109</v>
+        <v>-42.7726564366173</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>17.2521807526444</v>
+        <v>18.9332217665725</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>72.3081191978415</v>
+        <v>75.5610473628596</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>83.8780911801487</v>
+        <v>84.4617277660407</v>
       </c>
     </row>
     <row r="229">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>46.9107767848969</v>
+        <v>47.1230058102641</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>44.9590882414032</v>
+        <v>44.9585505514436</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>133.4005318432</v>
+        <v>134.147922137728</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>50.8028824774308</v>
+        <v>50.7820732958225</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>-36.3671895472919</v>
+        <v>-39.6581494729417</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>16.2295345430286</v>
+        <v>17.9270438636689</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>71.592021246529</v>
+        <v>74.6881268923876</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>83.1007529180826</v>
+        <v>84.3623563361187</v>
       </c>
     </row>
     <row r="238">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>46.6901341142241</v>
+        <v>46.744106918773</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>48.516202216589</v>
+        <v>48.5109590654436</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>133.629224277844</v>
+        <v>134.532429096959</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>50.557700601821</v>
+        <v>50.5489154638566</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>-30.3103433069355</v>
+        <v>-35.8696980595475</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>16.3530752629524</v>
+        <v>17.9824189289402</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>71.6215078237061</v>
+        <v>74.7684142574473</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>82.5970305364468</v>
+        <v>83.9065224506939</v>
       </c>
     </row>
     <row r="247">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>44.5211705456377</v>
+        <v>44.6353508293385</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>52.4549327968484</v>
+        <v>52.4438374363841</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>133.732272766183</v>
+        <v>134.441070757011</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>51.774275621218</v>
+        <v>51.7801508924817</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>-19.4443071213641</v>
+        <v>-28.1030613662161</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>16.4347643433238</v>
+        <v>18.0247958080737</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>70.6157817257815</v>
+        <v>73.7489179471165</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>79.538331482703</v>
+        <v>80.8515182418409</v>
       </c>
     </row>
     <row r="256">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>44.4484473923238</v>
+        <v>44.4221721596285</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>43.0309164317073</v>
+        <v>43.0002918301782</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>131.091468415273</v>
+        <v>131.859569162346</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>49.1149210470445</v>
+        <v>49.0676566036752</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>-24.3824575694926</v>
+        <v>-38.1576623490659</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>16.2143001109619</v>
+        <v>17.7677382667462</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>68.9055779220826</v>
+        <v>72.0207188739168</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>77.1916685984196</v>
+        <v>78.6156488611831</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>3.72740277931212</v>
+        <v>3.72408851264545</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>43.1940967786588</v>
+        <v>43.2304402395394</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>41.6388997569979</v>
+        <v>41.6347095542551</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>130.420149958586</v>
+        <v>131.114040729454</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>45.9516728526758</v>
+        <v>45.9208401634258</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>-18.6114247159696</v>
+        <v>-35.0238950756398</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>17.1739830298895</v>
+        <v>18.9973866505008</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>67.4256680217919</v>
+        <v>70.4425645060045</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>74.8714885576226</v>
+        <v>75.9601588439139</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>3.16763867924602</v>
+        <v>3.16101014591269</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>39.4334895116507</v>
+        <v>39.5961628143534</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>37.2390318569238</v>
+        <v>37.221441628401</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>109.636012903921</v>
+        <v>110.233309935805</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>39.9771948121292</v>
+        <v>39.9039187645987</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>-21.354158138814</v>
+        <v>-37.7427153455393</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>16.9090458272969</v>
+        <v>18.7273993539039</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>66.0420967394424</v>
+        <v>69.7048182142132</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>77.5277763584672</v>
+        <v>79.2747103643222</v>
       </c>
     </row>
     <row r="283">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>43.1376970809274</v>
+        <v>42.5072672700771</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>38.9799894067372</v>
+        <v>39.7916230959319</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>123.628109386272</v>
+        <v>124.342736000748</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>42.3226713288833</v>
+        <v>42.2269139766652</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>-19.0451939203212</v>
+        <v>-34.9593823467225</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>16.4629983857307</v>
+        <v>18.4318961120163</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>63.6453766311303</v>
+        <v>66.8566388724123</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>65.6711283002862</v>
+        <v>67.9908003480637</v>
       </c>
     </row>
     <row r="292">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>40.1289330643325</v>
+        <v>39.0550598836006</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>40.0431833252183</v>
+        <v>40.922297153792</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>127.979263552923</v>
+        <v>128.634788964131</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>38.2629708357209</v>
+        <v>38.257012701314</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>-18.4997488412946</v>
+        <v>-33.9704439400604</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>16.5724507874562</v>
+        <v>18.3501808597778</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>66.3910819360491</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>61.0805853106381</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>2.43770659270764</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>35.9346508281061</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>34.0172463863685</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>123.430542406095</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>34.1027345578582</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>-37.3805506121324</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>18.2024973386844</v>
       </c>
     </row>
   </sheetData>
